--- a/sprints/Sprint3/sprint3_backlog.xlsx
+++ b/sprints/Sprint3/sprint3_backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/de0b3ea1232571d3/Documents/School/Spring 24/SE2/UWG-SE2-Group5-Myst/sprints/sprint1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielrivera/CS_Capstone/Project/CapstoneProjectGroup7/sprints/Sprint3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{4EF0D730-A6C0-4C42-820F-A5C855B4C900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B9F5116-CFBB-46A7-AC00-A140F588775D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389EA065-37CD-CB45-B8DD-2F3ABC78AFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42600" yWindow="-5040" windowWidth="31540" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Related User Story</t>
-  </si>
-  <si>
-    <t>Task Description</t>
   </si>
   <si>
     <t>Initial Estimate</t>
@@ -53,109 +50,37 @@
     <t>Week 2</t>
   </si>
   <si>
-    <t>Week 3</t>
-  </si>
-  <si>
-    <t>Week 4</t>
-  </si>
-  <si>
     <t>Amount Remaining After…</t>
   </si>
   <si>
-    <t>Estimate Totals</t>
+    <t>edit group/ project should assign member/group using separate box for list of options and list of currently selected items</t>
   </si>
   <si>
-    <t>Code Things…</t>
+    <t>Assigned To</t>
   </si>
   <si>
-    <t>That User Story</t>
+    <t>Daniel</t>
   </si>
   <si>
-    <t>Select games that I own/ enjoy</t>
+    <t>Jacob</t>
   </si>
   <si>
-    <t>Game object, that holds game information</t>
+    <t>View Task</t>
   </si>
   <si>
-    <t>UI for selection, searchable, possibily sortable by genres</t>
+    <t>Create Task</t>
   </si>
   <si>
-    <t>User Validation(might not need since we are the ones uploading games)</t>
+    <t>Update Stage for Task</t>
   </si>
   <si>
-    <t>Testing model/ viewmodel</t>
+    <t>Assign Task</t>
   </si>
   <si>
-    <t>Find recommended/ suggested games</t>
+    <t>&lt;OPTIONAL&gt; display history for task on view (aka log)</t>
   </si>
   <si>
-    <t>UI for recommendation engine, swipe left or right</t>
-  </si>
-  <si>
-    <t>UI element for each recommended game</t>
-  </si>
-  <si>
-    <t>Functionality to save, liked/ dislikes games and genres, based on user's choices</t>
-  </si>
-  <si>
-    <t>Access and view game library</t>
-  </si>
-  <si>
-    <t>UI for game library, show user's owned games</t>
-  </si>
-  <si>
-    <t>UI for ability to select new game user owns</t>
-  </si>
-  <si>
-    <t>UI to display details from game, use image here</t>
-  </si>
-  <si>
-    <t>User/ Profile object, holds user information, list of own games, likes and dislikes</t>
-  </si>
-  <si>
-    <t>Create a profile</t>
-  </si>
-  <si>
-    <t>UI for creating a profile, needs to navigate to UI selection of games</t>
-  </si>
-  <si>
-    <t>UI for basic profile page</t>
-  </si>
-  <si>
-    <t>Library object, which holds maybe a user and then pull the list of games related to that user</t>
-  </si>
-  <si>
-    <t>UI allowing user to edit preferences, undo likes, dislikes</t>
-  </si>
-  <si>
-    <t>Jeffrey</t>
-  </si>
-  <si>
-    <t>No database as of now so prexisting local list of games (import game library from csv)</t>
-  </si>
-  <si>
-    <t>Build game Recommendation engine</t>
-  </si>
-  <si>
-    <t>Mystiverse page</t>
-  </si>
-  <si>
-    <t>Genre enum</t>
-  </si>
-  <si>
-    <t>Create ActiveUser, storing current user</t>
-  </si>
-  <si>
-    <t>Create Profile Attributes to hold more user info</t>
-  </si>
-  <si>
-    <t>Designing Profile SubPages( Edit Preferences, Edit Profile, Settings Profile)</t>
-  </si>
-  <si>
-    <t>Creating subPages viewmodel</t>
-  </si>
-  <si>
-    <t>Testing viewmodel of subpages</t>
+    <t>&lt;OPTIONAL&gt; post comment for task</t>
   </si>
 </sst>
 </file>
@@ -179,7 +104,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,12 +114,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -218,7 +137,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,15 +156,19 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -360,24 +283,18 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$34:$G$34</c:f>
+              <c:f>Sheet1!$C$10:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>132</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>114</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1119,16 +1036,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>106362</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>182562</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1154,10 +1071,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1423,703 +1336,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="51.42578125" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.5" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" s="8"/>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>6</v>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="6">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2">
-        <v>6</v>
-      </c>
-      <c r="F4" s="2">
-        <v>6</v>
-      </c>
-      <c r="G4" s="2">
-        <v>6</v>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C10" s="3">
+        <f>SUM(C3:C9)</f>
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
+        <f>SUM(D3:D9)</f>
         <v>12</v>
       </c>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2">
-        <v>4</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="E10" s="2">
+        <f>SUM(E3:E9)</f>
         <v>8</v>
-      </c>
-      <c r="D10" s="2">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2">
-        <v>2</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="1">
-        <v>6</v>
-      </c>
-      <c r="D11" s="2">
-        <v>6</v>
-      </c>
-      <c r="E11" s="2">
-        <v>6</v>
-      </c>
-      <c r="F11" s="2">
-        <v>6</v>
-      </c>
-      <c r="G11" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1">
-        <v>4</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="1">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1">
-        <v>6</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="1">
-        <v>4</v>
-      </c>
-      <c r="D14" s="1">
-        <v>4</v>
-      </c>
-      <c r="E14" s="2">
-        <v>2</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="1">
-        <v>6</v>
-      </c>
-      <c r="D16" s="1">
-        <v>6</v>
-      </c>
-      <c r="E16" s="2">
-        <v>3</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="1">
-        <v>6</v>
-      </c>
-      <c r="D17" s="1">
-        <v>6</v>
-      </c>
-      <c r="E17" s="2">
-        <v>5</v>
-      </c>
-      <c r="F17" s="2">
-        <v>3</v>
-      </c>
-      <c r="G17" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="1">
-        <v>4</v>
-      </c>
-      <c r="D18" s="1">
-        <v>4</v>
-      </c>
-      <c r="E18" s="2">
-        <v>4</v>
-      </c>
-      <c r="F18" s="2">
-        <v>4</v>
-      </c>
-      <c r="G18" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="1">
-        <v>4</v>
-      </c>
-      <c r="D19" s="1">
-        <v>4</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="1">
-        <v>4</v>
-      </c>
-      <c r="D20" s="1">
-        <v>4</v>
-      </c>
-      <c r="E20" s="2">
-        <v>4</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="6">
-        <v>6</v>
-      </c>
-      <c r="D21" s="2">
-        <v>6</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="6">
-        <v>6</v>
-      </c>
-      <c r="D22" s="2">
-        <v>6</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="6">
-        <v>6</v>
-      </c>
-      <c r="D23" s="6">
-        <v>6</v>
-      </c>
-      <c r="E23" s="2">
-        <v>6</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="6">
-        <v>4</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="6">
-        <v>4</v>
-      </c>
-      <c r="D25" s="2">
-        <v>4</v>
-      </c>
-      <c r="E25" s="2">
-        <v>4</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="6">
-        <v>2</v>
-      </c>
-      <c r="D26" s="2">
-        <v>2</v>
-      </c>
-      <c r="E26" s="2">
-        <v>1</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="6">
-        <v>3</v>
-      </c>
-      <c r="D27" s="2">
-        <v>3</v>
-      </c>
-      <c r="E27" s="2">
-        <v>1</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="6">
-        <v>10</v>
-      </c>
-      <c r="D28" s="2">
-        <v>6</v>
-      </c>
-      <c r="E28" s="2">
-        <v>4</v>
-      </c>
-      <c r="F28" s="2">
-        <v>2</v>
-      </c>
-      <c r="G28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="6">
-        <v>6</v>
-      </c>
-      <c r="D29" s="2">
-        <v>3</v>
-      </c>
-      <c r="E29" s="2">
-        <v>2</v>
-      </c>
-      <c r="F29" s="2">
-        <v>1</v>
-      </c>
-      <c r="G29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="6">
-        <v>10</v>
-      </c>
-      <c r="D30" s="2">
-        <v>7</v>
-      </c>
-      <c r="E30" s="2">
-        <v>4</v>
-      </c>
-      <c r="F30" s="2">
-        <v>3</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="3">
-        <f>SUM(C3:C33)</f>
-        <v>132</v>
-      </c>
-      <c r="D34" s="3">
-        <f t="shared" ref="D34:G34" si="0">SUM(D3:D33)</f>
-        <v>114</v>
-      </c>
-      <c r="E34" s="3">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="F34" s="3">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="G34" s="3">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sprints/Sprint3/sprint3_backlog.xlsx
+++ b/sprints/Sprint3/sprint3_backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielrivera/CS_Capstone/Project/CapstoneProjectGroup7/sprints/Sprint3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drivera3\source\repos\CapstoneProjectGroup7\sprints\Sprint3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389EA065-37CD-CB45-B8DD-2F3ABC78AFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9E3EBE-235F-4DD7-9F6E-7EEF45676890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42600" yWindow="-5040" windowWidth="31540" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Related User Story</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>&lt;OPTIONAL&gt; post comment for task</t>
+  </si>
+  <si>
+    <t>Restrict Column to group</t>
   </si>
 </sst>
 </file>
@@ -283,18 +286,18 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$10:$E$10</c:f>
+              <c:f>Sheet1!$C$11:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1044,7 +1047,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>182562</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1336,21 +1339,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.5" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1365,7 +1368,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -1378,12 +1381,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -1395,12 +1398,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
@@ -1412,12 +1415,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -1429,45 +1432,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="6">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="C8" s="6">
         <v>2</v>
       </c>
@@ -1475,12 +1480,12 @@
         <v>2</v>
       </c>
       <c r="E8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6">
@@ -1493,18 +1498,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C10" s="3">
-        <f>SUM(C3:C9)</f>
-        <v>13</v>
-      </c>
-      <c r="D10" s="2">
-        <f>SUM(D3:D9)</f>
-        <v>12</v>
-      </c>
-      <c r="E10" s="2">
-        <f>SUM(E3:E9)</f>
-        <v>8</v>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="3">
+        <f>SUM(C3:C10)</f>
+        <v>15</v>
+      </c>
+      <c r="D11" s="2">
+        <f>SUM(D3:D10)</f>
+        <v>10</v>
+      </c>
+      <c r="E11" s="2">
+        <f>SUM(E3:E10)</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/sprints/Sprint3/sprint3_backlog.xlsx
+++ b/sprints/Sprint3/sprint3_backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drivera3\source\repos\CapstoneProjectGroup7\sprints\Sprint3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jh00291\Documents\GitHub\CapstoneProjectGroup7\sprints\Sprint3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9E3EBE-235F-4DD7-9F6E-7EEF45676890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EB798C-BF66-49D4-9763-3C6111EA7A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Related User Story</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Amount Remaining After…</t>
   </si>
   <si>
-    <t>edit group/ project should assign member/group using separate box for list of options and list of currently selected items</t>
-  </si>
-  <si>
     <t>Assigned To</t>
   </si>
   <si>
@@ -68,22 +65,34 @@
     <t>View Task</t>
   </si>
   <si>
-    <t>Create Task</t>
-  </si>
-  <si>
-    <t>Update Stage for Task</t>
-  </si>
-  <si>
-    <t>Assign Task</t>
-  </si>
-  <si>
-    <t>&lt;OPTIONAL&gt; display history for task on view (aka log)</t>
-  </si>
-  <si>
-    <t>&lt;OPTIONAL&gt; post comment for task</t>
-  </si>
-  <si>
-    <t>Restrict Column to group</t>
+    <t>Edit Group</t>
+  </si>
+  <si>
+    <t>Edit Project</t>
+  </si>
+  <si>
+    <t>Assign/Remove Group to/from Project</t>
+  </si>
+  <si>
+    <t>Assign a task to myself</t>
+  </si>
+  <si>
+    <t>Create a Task on the Board of a Project for my Group</t>
+  </si>
+  <si>
+    <t>Update Stage of my assigned Task</t>
+  </si>
+  <si>
+    <t>Assign a Task on a Board from a Project for my Group to an Employee in my Group</t>
+  </si>
+  <si>
+    <t>Assign/Remove Group(s) to/from Stage of Project</t>
+  </si>
+  <si>
+    <t>View a history of events for a Task (Optional)</t>
+  </si>
+  <si>
+    <t>Post a comment to a Task on the Board of a Project for my Group (Optional)</t>
   </si>
 </sst>
 </file>
@@ -286,18 +295,18 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$11:$E$11</c:f>
+              <c:f>Sheet1!$C$14:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1047,7 +1056,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>182562</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1339,21 +1348,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="59.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1368,10 +1377,10 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="4" t="s">
@@ -1381,15 +1390,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -1398,66 +1407,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -1466,43 +1475,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="6">
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="C9" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="C10" s="6">
         <v>2</v>
       </c>
@@ -1513,18 +1526,65 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="3">
-        <f>SUM(C3:C10)</f>
-        <v>15</v>
-      </c>
-      <c r="D11" s="2">
-        <f>SUM(D3:D10)</f>
-        <v>10</v>
-      </c>
-      <c r="E11" s="2">
-        <f>SUM(E3:E10)</f>
-        <v>4</v>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C14" s="3">
+        <f>SUM(C3:C13)</f>
+        <v>20</v>
+      </c>
+      <c r="D14" s="2">
+        <f>SUM(D3:D13)</f>
+        <v>11</v>
+      </c>
+      <c r="E14" s="2">
+        <f>SUM(E3:E13)</f>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/sprints/Sprint3/sprint3_backlog.xlsx
+++ b/sprints/Sprint3/sprint3_backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jh00291\Documents\GitHub\CapstoneProjectGroup7\sprints\Sprint3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drivera3\source\repos\CapstoneProjectGroup7\sprints\Sprint3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EB798C-BF66-49D4-9763-3C6111EA7A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E8080B-2924-4135-B2EB-C4ECB98BDE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38610" windowHeight="20295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Related User Story</t>
   </si>
@@ -306,7 +306,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1351,18 +1351,18 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.453125" customWidth="1"/>
-    <col min="2" max="2" width="23.7265625" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1377,7 +1377,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -1390,7 +1390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
@@ -1543,11 +1543,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="C12" s="6">
         <v>2</v>
       </c>
@@ -1555,14 +1557,16 @@
         <v>2</v>
       </c>
       <c r="E12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="C13" s="6">
         <v>3</v>
       </c>
@@ -1570,10 +1574,10 @@
         <v>3</v>
       </c>
       <c r="E13" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" s="3">
         <f>SUM(C3:C13)</f>
         <v>20</v>
@@ -1584,7 +1588,7 @@
       </c>
       <c r="E14" s="2">
         <f>SUM(E3:E13)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/sprints/Sprint3/sprint3_backlog.xlsx
+++ b/sprints/Sprint3/sprint3_backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drivera3\source\repos\CapstoneProjectGroup7\sprints\Sprint3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jh00291\Documents\GitHub\CapstoneProjectGroup7\sprints\Sprint3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E8080B-2924-4135-B2EB-C4ECB98BDE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDC0353-7238-4B47-8FC1-CEB150213BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38610" windowHeight="20295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5350" yWindow="4220" windowWidth="28800" windowHeight="15410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -306,7 +306,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1351,18 +1351,18 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="59.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1377,7 +1377,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -1390,7 +1390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>14</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
@@ -1523,15 +1523,15 @@
         <v>2</v>
       </c>
       <c r="E10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="6">
         <v>2</v>
@@ -1543,7 +1543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C14" s="3">
         <f>SUM(C3:C13)</f>
         <v>20</v>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="E14" s="2">
         <f>SUM(E3:E13)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/sprints/Sprint3/sprint3_backlog.xlsx
+++ b/sprints/Sprint3/sprint3_backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jh00291\Documents\GitHub\CapstoneProjectGroup7\sprints\Sprint3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDC0353-7238-4B47-8FC1-CEB150213BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD185F17-6A51-4D49-BD9C-9B4DBD3DF14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5350" yWindow="4220" windowWidth="28800" windowHeight="15410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -306,7 +306,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1351,7 +1351,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1540,7 +1540,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="E14" s="2">
         <f>SUM(E3:E13)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
